--- a/DOM_Banner/output/dept_banner/Kanwal Bains_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Kanwal Bains_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, University of California, San Francisco, Fresno, CA; Department of Internal Medicine, University of Arizona, South Campus, Tucson, AZ; Department of Internal Medicine, University of Arizona, South Campus, Tucson, AZ; Liver Institute Northwest, Seattle, WA; Dayanand Medical College and Hospital; Punjab Institute of Medical Sciences; Ross University School of Medicine; Graduate School of Public Health, Icahn School of Medicine, Mount Sinai, New York, NY; Dayanand Medical College and Hospital; Department of Gastroenterology and Hepatology, University of California, San Francisco, Fresno, CA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311978450</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Hospitalization Outcomes of Acute Pancreatitis in Hematopoietic Stem Cell Transplant Recipients</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Gastroenterology Research</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.14740/gr1579</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36660472</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.14740/gr1579</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Brigham and Women’s Hospital, Boston, MA.; Brigham and Women’s Hospital, Boston, MA.; Brigham and Women’s Hospital, Boston, MA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316081765</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>S1109 General vs Monitored Anesthesia Time: Is One Preferred for EUS-Guided Portal Pressure Gradient Measurements and Liver Biopsies?</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000861076.64792.08</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000861076.64792.08</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA; &lt;idGroup xmlns="http://www.wiley.com/namespaces/wiley"&gt; &lt;id type="ringgold" value="29761"&gt;&lt;/id&gt; &lt;/idGroup&gt; Dayanand Medical College and Hospital Ludhiana India; Roger Williams Medical Center, Providence, Rhode Island, USA; University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA; University of Arizona College of Medicine at South Campus, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221107739</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The enigma of persistent hypertriglyceridemia: A case report</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Clinical Case Reports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ccr3.5610</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35356184</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ccr3.5610</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Brigham and Women's Hospital, Boston, MA.; Brigham and Women's Hospital, Boston, MA.; Brigham and Women's Hospital, Boston, MA.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316077440</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>S2550 EUS-Guided Coil Embolization and Absorbable Hemostatic Gelatin Sponge Is a Safe and Efficacious Treatment of Rectal Varices</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000866840.39397.32</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000866840.39397.32</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Brigham and Women’s Hospital, Boston, MA; Brown University, Providence, RI.; Brown University, Providence, RI.; Brown University, Providence, RI.; Brown University, Providence, RI.; Brown University, Providence, RI.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320064919</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>S629 Clinical Setting and Outcomes in Patients Undergoing Endoscopic Disimpaction of Esophageal Food Bolus</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000859156.28164.b9</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000859156.28164.b9</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
